--- a/nmadb/473269.xlsx
+++ b/nmadb/473269.xlsx
@@ -33,7 +33,7 @@
     <t xml:space="preserve">id</t>
   </si>
   <si>
-    <t xml:space="preserve">tx</t>
+    <t xml:space="preserve">t</t>
   </si>
   <si>
     <t xml:space="preserve">r</t>
@@ -337,8 +337,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.76923076923077"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.82186234817814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.46153846153846"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.2834008097166"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="4.92712550607287"/>
@@ -6003,7 +6003,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6078,7 +6078,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
